--- a/Домашнее задание.xlsx
+++ b/Домашнее задание.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Домашнее задание" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t xml:space="preserve">Составьте таблицы для хранения сведений об общественном транспорте.
 — Можно на примере автобусов.
@@ -177,6 +177,24 @@
   </si>
   <si>
     <t xml:space="preserve">8.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.30</t>
   </si>
   <si>
     <t xml:space="preserve">Маршрут по дням</t>
@@ -297,11 +315,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="126.6"/>
   </cols>
@@ -333,7 +351,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.21"/>
@@ -565,7 +583,7 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.85"/>
@@ -679,7 +697,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.97"/>
@@ -976,16 +994,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,6 +1081,39 @@
       </c>
       <c r="C7" s="0" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1081,13 +1132,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB7" activeCellId="0" sqref="AB7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T32" activeCellId="0" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.12"/>
@@ -1102,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1607,6 +1658,9 @@
       <c r="AD7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AG7" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1674,6 +1728,795 @@
       </c>
       <c r="AD8" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
